--- a/구조정의서_매크로/★구조정의서 양식_매크로★.xlsx
+++ b/구조정의서_매크로/★구조정의서 양식_매크로★.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05056AE-5CFF-406F-898E-B72016760762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DBC910-11C2-431C-AFB6-75256F0F2452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FE776866-9EBE-4F16-9C25-CA40223A1C22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{FE776866-9EBE-4F16-9C25-CA40223A1C22}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스정의서" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>기관명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -193,6 +193,12 @@
   <si>
     <t>소수점 길이</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBMS명</t>
+  </si>
+  <si>
+    <t>스키마명</t>
   </si>
 </sst>
 </file>
@@ -496,6 +502,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -504,18 +522,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -855,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA876E2D-7B5F-441C-BFFF-B8597F8F9287}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -913,49 +919,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB3DBC6-EE6E-4DC1-AE9B-6516C2FD1F55}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.58203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.9140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.58203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" thickBot="1">
+    <row r="1" spans="1:11" ht="21" thickBot="1">
       <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -994,87 +1009,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12" t="s">
@@ -1111,45 +1126,45 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="24.5" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="26" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="29" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1444,17 +1459,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
